--- a/data/question_test.xlsx
+++ b/data/question_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461BB8D-B929-4C47-9BB7-A7DEAC7852B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DCE597-ABD0-45DD-8B42-C377110ECA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11775" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="4770" yWindow="2160" windowWidth="21600" windowHeight="11775" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>これはもうあかん。これも弱ったことやろーで、少々残っておったパンをね、1日ぐらいは食べたけどな、もう2日目から何にも食べられず、80キロの道を3日間で歩いたんや。</t>
   </si>
   <si>
-    <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
-  </si>
-  <si>
     <t>自分でもわかる。意識がないようになるとおかしいことになって、野原の中をね、ものすごい天気がいい野原の中を歌を歌いもって歩いとるんや。</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>それが100歳になろうとしてまあ一つは気ままにですから、根性いいですから、そういうものにも助けられたんじゃないかと思いますわ。</t>
-  </si>
-  <si>
-    <t>1日くらい何を食べていたんだろう？</t>
   </si>
   <si>
     <t>家を出て何を失ったのか？</t>
@@ -351,6 +345,14 @@
     <rPh sb="0" eb="2">
       <t>シツモン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日くらい何を食べていたんだろう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -746,7 +748,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -762,13 +764,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -782,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -795,10 +797,10 @@
         <v>991</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -811,13 +813,13 @@
         <v>1013</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -829,10 +831,10 @@
         <v>1021</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -845,10 +847,10 @@
         <v>1025</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -861,13 +863,13 @@
         <v>1034</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -879,10 +881,10 @@
         <v>1042</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -895,13 +897,13 @@
         <v>1062</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -913,13 +915,13 @@
         <v>1072</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -931,13 +933,13 @@
         <v>1081</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -949,13 +951,13 @@
         <v>1090</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -967,13 +969,13 @@
         <v>1100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -985,10 +987,10 @@
         <v>1110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1001,13 +1003,13 @@
         <v>1116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1019,16 +1021,16 @@
         <v>1138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1039,10 +1041,10 @@
         <v>1145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1055,10 +1057,10 @@
         <v>1164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1071,10 +1073,10 @@
         <v>1171</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1087,10 +1089,10 @@
         <v>1174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1103,13 +1105,13 @@
         <v>1191</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1121,10 +1123,10 @@
         <v>1207</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1137,10 +1139,10 @@
         <v>1215</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1153,10 +1155,10 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1169,13 +1171,13 @@
         <v>1234</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1187,10 +1189,10 @@
         <v>1253</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1203,10 +1205,10 @@
         <v>1257</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1219,13 +1221,13 @@
         <v>1268</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1237,10 +1239,10 @@
         <v>1286</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/question_test.xlsx
+++ b/data/question_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DCE597-ABD0-45DD-8B42-C377110ECA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C35885-A156-455C-AF67-71CD93D85C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2160" windowWidth="21600" windowHeight="11775" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -101,9 +101,6 @@
     <t>私も2人組入って、私の上の方で一組が大きな木を切って、今から落とすぞーって、大体30センチの長さ66メートルくらいの材木を山の斜面に滑らせて落とすんです</t>
   </si>
   <si>
-    <t>それが山にはあちこちに入っているので、仕事をして、私もその時、山の下の方におったんです</t>
-  </si>
-  <si>
     <t>ほったら上の方で、今から落とすぞー気つけよーってこーらえらいこっちゃ言って、そこらへんの木の裏に逃げて隠れとった。ところが木が横になるのを見ただけで山の斜面を一気に落ちていったんや</t>
   </si>
   <si>
@@ -227,19 +224,6 @@
     <t>山の斜面を滑り落ちたものは何だったのか？</t>
   </si>
   <si>
-    <t>私は仕事をしていた時、どこにいましたか？</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>木が横たわるのを見ながら、山の斜面に何が落ちてきたのだろう？</t>
   </si>
   <si>
@@ -354,13 +338,148 @@
   <si>
     <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収容所に連れて行かれたのね、一箇所じゃないですよ。全部で7箇所ほどあっちこっちへ引っ張り回されてね、そこでいろんな重労働を強制されたわけや</t>
+  </si>
+  <si>
+    <t>全部で何箇所の収容所に連れていかれましたか？</t>
+  </si>
+  <si>
+    <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた</t>
+  </si>
+  <si>
+    <t>何日間歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>どれだけ長い距離を歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>山の中へ連れていかれ、そういったことで、強制労働で伐採をさせられた。</t>
+  </si>
+  <si>
+    <t>どんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
+  </si>
+  <si>
+    <t>収容所ではガスや電気、トイレは使えましたか？</t>
+  </si>
+  <si>
+    <t>収容所に電気は通っていましたか？</t>
+  </si>
+  <si>
+    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
+  </si>
+  <si>
+    <t>普段は何食,食べることができましたか？</t>
+  </si>
+  <si>
+    <t>収容所では何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
+  </si>
+  <si>
+    <t>昼ごはんは何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼食でどのくらいの量を食べられましたか？</t>
+  </si>
+  <si>
+    <t>だから、入った年には、みんな栄養失調になっていた。そのうえで、伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がない場合に。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
+  </si>
+  <si>
+    <t>毎日何人の抑留者の方が死にましか？</t>
+  </si>
+  <si>
+    <t>栄養失調になる人はいましたか？</t>
+  </si>
+  <si>
+    <t>それから街中へ行くとメリケン粉工場とか造船所とかいろんなところへで雑役としては使われます。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
+  </si>
+  <si>
+    <t>街中ではどんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>工場ではどんな仕事をさせられましたか？</t>
+  </si>
+  <si>
+    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。</t>
+  </si>
+  <si>
+    <t>船場ではどんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
+  </si>
+  <si>
+    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。</t>
+  </si>
+  <si>
+    <t>仕事にノルマはありましたか？</t>
+  </si>
+  <si>
+    <t>仕事量はどうでしたか？</t>
+  </si>
+  <si>
+    <t>仕事で厳しく言われましたか？</t>
+  </si>
+  <si>
+    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
+  </si>
+  <si>
+    <t>抑留中に病気にかかりましたか？</t>
+  </si>
+  <si>
+    <t>体を壊したことはありますか？</t>
+  </si>
+  <si>
+    <t>とことん壊して3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
+  </si>
+  <si>
+    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
+  </si>
+  <si>
+    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
+  </si>
+  <si>
+    <t>何回死にそうだなと思いましたか？</t>
+  </si>
+  <si>
+    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
+  </si>
+  <si>
+    <t>体重はどれくらい減りましたか？</t>
+  </si>
+  <si>
+    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
+  </si>
+  <si>
+    <t>どうして帰ってこれたと思いますか？</t>
+  </si>
+  <si>
+    <t>意識を失ったときどんな気持ちになりましたか？</t>
+  </si>
+  <si>
+    <t>どれくらいの大きさの木を切っていましたか？</t>
+  </si>
+  <si>
+    <t>今、生きて帰ってこれたことをどう思いますか？</t>
+  </si>
+  <si>
+    <t>本当なら何歳で死んでいたと思いますか？</t>
+  </si>
+  <si>
+    <t>驚いたことはありますか？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,21 +502,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -406,11 +564,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -745,15 +918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8DA52E-38E4-4B7B-B163-9F83F8FEC0C7}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,16 +937,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>962</v>
       </c>
@@ -784,12 +957,12 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>980</v>
       </c>
@@ -797,15 +970,15 @@
         <v>991</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>994</v>
       </c>
@@ -816,14 +989,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1012</v>
       </c>
@@ -834,12 +1007,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1020</v>
       </c>
@@ -850,12 +1023,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -866,14 +1039,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1033</v>
       </c>
@@ -884,12 +1057,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1041</v>
       </c>
@@ -900,14 +1073,14 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>1061</v>
       </c>
@@ -918,14 +1091,14 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1071</v>
       </c>
@@ -936,14 +1109,14 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1080</v>
       </c>
@@ -954,14 +1127,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1089</v>
       </c>
@@ -972,14 +1145,14 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1099</v>
       </c>
@@ -990,12 +1163,12 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1109</v>
       </c>
@@ -1006,14 +1179,14 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1115</v>
       </c>
@@ -1024,85 +1197,87 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="B17" s="1">
-        <v>1145</v>
+        <v>1164</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="B18" s="1">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="B19" s="1">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B20" s="1">
-        <v>1174</v>
+        <v>1191</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>1173</v>
+        <v>1190</v>
       </c>
       <c r="B21" s="1">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
@@ -1110,65 +1285,65 @@
       <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="B22" s="1">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="B23" s="1">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="B24" s="1">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="B25" s="1">
-        <v>1234</v>
+        <v>1253</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1176,74 +1351,388 @@
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>1233</v>
+        <v>1252</v>
       </c>
       <c r="B26" s="1">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B27" s="1">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="1">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="B28" s="1">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>1267</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1286</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A29" s="2">
+        <v>275</v>
+      </c>
+      <c r="B29" s="2">
+        <v>292</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="207.6" thickBot="1">
+      <c r="A30" s="2">
+        <v>295</v>
+      </c>
+      <c r="B30" s="2">
+        <v>312</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="124.8" thickBot="1">
+      <c r="A31" s="2">
+        <v>325</v>
+      </c>
+      <c r="B31" s="2">
+        <v>334</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="124.8" thickBot="1">
+      <c r="A32" s="2">
+        <v>333</v>
+      </c>
+      <c r="B32" s="2">
+        <v>347</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="166.2" thickBot="1">
+      <c r="A33" s="2">
+        <v>420</v>
+      </c>
+      <c r="B33" s="2">
+        <v>437</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="331.8" thickBot="1">
+      <c r="A34" s="2">
+        <v>457</v>
+      </c>
+      <c r="B34" s="2">
+        <v>484</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="409.6" thickBot="1">
+      <c r="A35" s="2">
+        <v>484</v>
+      </c>
+      <c r="B35" s="2">
+        <v>508</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="409.6" thickBot="1">
+      <c r="A36" s="2">
+        <v>543</v>
+      </c>
+      <c r="B36" s="2">
+        <v>561</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="235.2" thickBot="1">
+      <c r="A37" s="2">
+        <v>591</v>
+      </c>
+      <c r="B37" s="2">
+        <v>611</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="138.6" thickBot="1">
+      <c r="A38" s="2">
+        <v>726</v>
+      </c>
+      <c r="B38" s="2">
+        <v>752</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="249" thickBot="1">
+      <c r="A39" s="2">
+        <v>752</v>
+      </c>
+      <c r="B39" s="2">
+        <v>770</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="409.6" thickBot="1">
+      <c r="A40" s="2">
+        <v>770</v>
+      </c>
+      <c r="B40" s="2">
+        <v>803</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="180" thickBot="1">
+      <c r="A41" s="2">
+        <v>803</v>
+      </c>
+      <c r="B41" s="2">
+        <v>812</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="400.8" thickBot="1">
+      <c r="A42" s="2">
+        <v>812</v>
+      </c>
+      <c r="B42" s="2">
+        <v>844</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="235.2" thickBot="1">
+      <c r="A43" s="2">
+        <v>994</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="276.60000000000002" thickBot="1">
+      <c r="A44" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="69.599999999999994" thickBot="1">
+      <c r="A45" s="2">
+        <v>1252</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1257</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="180" thickBot="1">
+      <c r="A46" s="2">
+        <v>1256</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1268</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/question_test.xlsx
+++ b/data/question_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\souzoukougaku_hikiage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C35885-A156-455C-AF67-71CD93D85C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208F679-4FC3-486F-BBA9-A0984F328A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>体重が65キロもあったが、38キロまで37キロか8キロくらいまで減ってしまったいうような状態でね、私は本当にひどい目に遭いました3年間の間</t>
-  </si>
-  <si>
-    <t>今、生きて帰ってきたのが不思議でかなん。</t>
   </si>
   <si>
     <t>それに増して、またもう100歳まで生きているので、驚いとると。もう27歳で私は完全に死んどったんです。</t>
@@ -276,25 +273,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>今、生きた帰ってきたことを彼はどう感じていますか？</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カレ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>もしそれが本当なら、私は何歳までに完全に死んでいただろう？</t>
   </si>
   <si>
@@ -466,9 +444,6 @@
     <t>どれくらいの大きさの木を切っていましたか？</t>
   </si>
   <si>
-    <t>今、生きて帰ってこれたことをどう思いますか？</t>
-  </si>
-  <si>
     <t>本当なら何歳で死んでいたと思いますか？</t>
   </si>
   <si>
@@ -479,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +494,13 @@
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8DA52E-38E4-4B7B-B163-9F83F8FEC0C7}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -937,13 +922,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -957,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -970,10 +955,10 @@
         <v>991</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -989,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1007,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1023,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1039,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1057,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1073,10 +1058,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1091,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1109,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1127,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1145,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1163,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1179,10 +1164,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1197,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1217,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1233,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1249,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1265,10 +1250,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1283,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1299,7 +1284,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1315,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1331,10 +1316,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1349,7 +1334,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1361,12 +1346,8 @@
       <c r="B26" s="1">
         <v>1257</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
@@ -1378,13 +1359,13 @@
         <v>1268</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1396,10 +1377,10 @@
         <v>1286</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="35.4" customHeight="1" thickBot="1">
@@ -1410,10 +1391,10 @@
         <v>292</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1427,13 +1408,13 @@
         <v>312</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1446,10 +1427,10 @@
         <v>334</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1463,13 +1444,13 @@
         <v>347</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1482,13 +1463,13 @@
         <v>437</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1501,13 +1482,13 @@
         <v>484</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1520,13 +1501,13 @@
         <v>508</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1539,13 +1520,13 @@
         <v>561</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1558,13 +1539,13 @@
         <v>611</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1577,16 +1558,16 @@
         <v>752</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -1598,13 +1579,13 @@
         <v>770</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -1617,16 +1598,16 @@
         <v>803</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -1638,10 +1619,10 @@
         <v>812</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1655,10 +1636,10 @@
         <v>844</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1675,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1692,25 +1673,21 @@
         <v>16</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="69.599999999999994" thickBot="1">
+    <row r="45" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A45" s="2">
         <v>1252</v>
       </c>
       <c r="B45" s="2">
         <v>1257</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1723,13 +1700,13 @@
         <v>1268</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>

--- a/data/question_test.xlsx
+++ b/data/question_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208F679-4FC3-486F-BBA9-A0984F328A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7366F3-6446-4CBC-95F2-C34322A1F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="3720" yWindow="2220" windowWidth="17280" windowHeight="9168" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -327,127 +327,142 @@
     <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた</t>
   </si>
   <si>
+    <t>どれだけ長い距離を歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>山の中へ連れていかれ、そういったことで、強制労働で伐採をさせられた。</t>
+  </si>
+  <si>
+    <t>どんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
+  </si>
+  <si>
+    <t>収容所ではガスや電気、トイレは使えましたか？</t>
+  </si>
+  <si>
+    <t>収容所に電気は通っていましたか？</t>
+  </si>
+  <si>
+    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
+  </si>
+  <si>
+    <t>普段は何食,食べることができましたか？</t>
+  </si>
+  <si>
+    <t>収容所では何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
+  </si>
+  <si>
+    <t>昼ごはんは何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼食でどのくらいの量を食べられましたか？</t>
+  </si>
+  <si>
+    <t>だから、入った年には、みんな栄養失調になっていた。そのうえで、伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がない場合に。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
+  </si>
+  <si>
+    <t>毎日何人の抑留者の方が死にましか？</t>
+  </si>
+  <si>
+    <t>栄養失調になる人はいましたか？</t>
+  </si>
+  <si>
+    <t>それから街中へ行くとメリケン粉工場とか造船所とかいろんなところへで雑役としては使われます。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
+  </si>
+  <si>
+    <t>街中ではどんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>工場ではどんな仕事をさせられましたか？</t>
+  </si>
+  <si>
+    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。</t>
+  </si>
+  <si>
+    <t>船場ではどんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
+  </si>
+  <si>
+    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。</t>
+  </si>
+  <si>
+    <t>仕事にノルマはありましたか？</t>
+  </si>
+  <si>
+    <t>仕事量はどうでしたか？</t>
+  </si>
+  <si>
+    <t>仕事で厳しく言われましたか？</t>
+  </si>
+  <si>
+    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
+  </si>
+  <si>
+    <t>抑留中に病気にかかりましたか？</t>
+  </si>
+  <si>
+    <t>体を壊したことはありますか？</t>
+  </si>
+  <si>
+    <t>とことん壊して3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
+  </si>
+  <si>
+    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
+  </si>
+  <si>
+    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
+  </si>
+  <si>
+    <t>何回死にそうだなと思いましたか？</t>
+  </si>
+  <si>
+    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
+  </si>
+  <si>
+    <t>体重はどれくらい減りましたか？</t>
+  </si>
+  <si>
+    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
+  </si>
+  <si>
+    <t>どうして帰ってこれたと思いますか？</t>
+  </si>
+  <si>
+    <t>意識を失ったときどんな気持ちになりましたか？</t>
+  </si>
+  <si>
+    <t>どれくらいの大きさの木を切っていましたか？</t>
+  </si>
+  <si>
+    <t>本当なら何歳で死んでいたと思いますか？</t>
+  </si>
+  <si>
+    <t>驚いたことはありますか？</t>
+  </si>
+  <si>
     <t>何日間歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>どれだけ長い距離を歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>山の中へ連れていかれ、そういったことで、強制労働で伐採をさせられた。</t>
-  </si>
-  <si>
-    <t>どんな労働をさせられましたか？</t>
-  </si>
-  <si>
-    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
-  </si>
-  <si>
-    <t>収容所ではガスや電気、トイレは使えましたか？</t>
-  </si>
-  <si>
-    <t>収容所に電気は通っていましたか？</t>
-  </si>
-  <si>
-    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
-  </si>
-  <si>
-    <t>普段は何食,食べることができましたか？</t>
-  </si>
-  <si>
-    <t>収容所では何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
-  </si>
-  <si>
-    <t>昼ごはんは何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼食でどのくらいの量を食べられましたか？</t>
-  </si>
-  <si>
-    <t>だから、入った年には、みんな栄養失調になっていた。そのうえで、伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がない場合に。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
-  </si>
-  <si>
-    <t>毎日何人の抑留者の方が死にましか？</t>
-  </si>
-  <si>
-    <t>栄養失調になる人はいましたか？</t>
-  </si>
-  <si>
-    <t>それから街中へ行くとメリケン粉工場とか造船所とかいろんなところへで雑役としては使われます。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
-  </si>
-  <si>
-    <t>街中ではどんな労働をさせられましたか？</t>
-  </si>
-  <si>
-    <t>工場ではどんな仕事をさせられましたか？</t>
-  </si>
-  <si>
-    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。</t>
-  </si>
-  <si>
-    <t>船場ではどんな労働をさせられましたか？</t>
-  </si>
-  <si>
-    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
-  </si>
-  <si>
-    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。</t>
-  </si>
-  <si>
-    <t>仕事にノルマはありましたか？</t>
-  </si>
-  <si>
-    <t>仕事量はどうでしたか？</t>
-  </si>
-  <si>
-    <t>仕事で厳しく言われましたか？</t>
-  </si>
-  <si>
-    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
-  </si>
-  <si>
-    <t>抑留中に病気にかかりましたか？</t>
-  </si>
-  <si>
-    <t>体を壊したことはありますか？</t>
-  </si>
-  <si>
-    <t>とことん壊して3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
-  </si>
-  <si>
-    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
-  </si>
-  <si>
-    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
-  </si>
-  <si>
-    <t>何回死にそうだなと思いましたか？</t>
-  </si>
-  <si>
-    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
-  </si>
-  <si>
-    <t>体重はどれくらい減りましたか？</t>
-  </si>
-  <si>
-    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
-  </si>
-  <si>
-    <t>どうして帰ってこれたと思いますか？</t>
-  </si>
-  <si>
-    <t>意識を失ったときどんな気持ちになりましたか？</t>
-  </si>
-  <si>
-    <t>どれくらいの大きさの木を切っていましたか？</t>
-  </si>
-  <si>
-    <t>本当なら何歳で死んでいたと思いますか？</t>
-  </si>
-  <si>
-    <t>驚いたことはありますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ元</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -498,9 +513,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -903,15 +918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8DA52E-38E4-4B7B-B163-9F83F8FEC0C7}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +945,11 @@
       <c r="F1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>962</v>
       </c>
@@ -946,8 +964,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>980</v>
       </c>
@@ -962,8 +983,11 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>994</v>
       </c>
@@ -980,8 +1004,11 @@
         <v>30</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1012</v>
       </c>
@@ -996,8 +1023,11 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1020</v>
       </c>
@@ -1012,8 +1042,11 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1030,8 +1063,11 @@
         <v>34</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1033</v>
       </c>
@@ -1046,8 +1082,11 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1041</v>
       </c>
@@ -1064,8 +1103,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1061</v>
       </c>
@@ -1082,8 +1124,11 @@
         <v>39</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>1071</v>
       </c>
@@ -1100,8 +1145,11 @@
         <v>41</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>1080</v>
       </c>
@@ -1118,8 +1166,11 @@
         <v>43</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1089</v>
       </c>
@@ -1136,8 +1187,11 @@
         <v>45</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1099</v>
       </c>
@@ -1152,8 +1206,11 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1109</v>
       </c>
@@ -1170,8 +1227,11 @@
         <v>48</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>1115</v>
       </c>
@@ -1189,6 +1249,9 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1206,6 +1269,9 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -1222,6 +1288,9 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -1238,6 +1307,9 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -1256,6 +1328,9 @@
         <v>56</v>
       </c>
       <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -1272,6 +1347,9 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
@@ -1288,6 +1366,9 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
@@ -1304,6 +1385,9 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
@@ -1322,6 +1406,9 @@
         <v>61</v>
       </c>
       <c r="F24" s="1"/>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
@@ -1338,378 +1425,396 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B26" s="1">
-        <v>1257</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+        <v>1268</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="1">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="B27" s="1">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="1">
-        <v>1267</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1286</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="35.4" customHeight="1" thickBot="1">
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="2">
+        <v>275</v>
+      </c>
+      <c r="B28" s="2">
+        <v>292</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B29" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="207.6" thickBot="1">
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" customHeight="1" thickBot="1">
       <c r="A30" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B30" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="124.8" thickBot="1">
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.2" customHeight="1" thickBot="1">
       <c r="A31" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B31" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="124.8" thickBot="1">
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="2">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="B32" s="2">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="166.2" thickBot="1">
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A33" s="2">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="B33" s="2">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="331.8" thickBot="1">
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="2">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="B34" s="2">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="409.6" thickBot="1">
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
       <c r="A35" s="2">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="B35" s="2">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="409.6" thickBot="1">
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="2">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="B36" s="2">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="235.2" thickBot="1">
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="2">
-        <v>591</v>
+        <v>726</v>
       </c>
       <c r="B37" s="2">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="138.6" thickBot="1">
+        <v>96</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
       <c r="A38" s="2">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="B38" s="2">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="249" thickBot="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
       <c r="A39" s="2">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="B39" s="2">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="409.6" thickBot="1">
+        <v>103</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.8" customHeight="1" thickBot="1">
       <c r="A40" s="2">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="B40" s="2">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="180" thickBot="1">
+      <c r="D40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="2">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B41" s="2">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="400.8" thickBot="1">
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.8" customHeight="1" thickBot="1">
       <c r="A42" s="2">
-        <v>812</v>
+        <v>994</v>
       </c>
       <c r="B42" s="2">
-        <v>844</v>
+        <v>1013</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="235.2" thickBot="1">
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A43" s="2">
-        <v>994</v>
+        <v>1115</v>
       </c>
       <c r="B43" s="2">
-        <v>1013</v>
+        <v>1138</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="276.60000000000002" thickBot="1">
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A44" s="2">
-        <v>1115</v>
+        <v>1256</v>
       </c>
       <c r="B44" s="2">
-        <v>1138</v>
+        <v>1268</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A45" s="2">
-        <v>1252</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1257</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="180" thickBot="1">
-      <c r="A46" s="2">
-        <v>1256</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1268</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/question_test.xlsx
+++ b/data/question_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\souzoukougaku_hikiage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7366F3-6446-4CBC-95F2-C34322A1F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9526B7A-5410-405F-B742-CE90F3C036BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2220" windowWidth="17280" windowHeight="9168" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13654" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,6 @@
     <t>体を壊したことはありますか？</t>
   </si>
   <si>
-    <t>とことん壊して3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
-  </si>
-  <si>
     <t>死にそうだなって思ったこと、体感したことはありますか？</t>
   </si>
   <si>
@@ -462,6 +459,22 @@
     <rPh sb="0" eb="2">
       <t>ドウガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -920,11 +933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8DA52E-38E4-4B7B-B163-9F83F8FEC0C7}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.7"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -946,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -965,7 +978,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,7 +997,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1005,7 +1018,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1024,7 +1037,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1043,7 +1056,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1064,7 +1077,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1083,7 +1096,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1104,7 +1117,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1125,7 +1138,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1146,7 +1159,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1167,7 +1180,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1188,7 +1201,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1207,7 +1220,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1228,7 +1241,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1251,7 +1264,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1270,7 +1283,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1289,7 +1302,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1308,7 +1321,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1329,7 +1342,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1348,7 +1361,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1367,7 +1380,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1386,7 +1399,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1407,7 +1420,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1426,7 +1439,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1447,10 +1460,10 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.350000000000001" thickBot="1">
       <c r="A27" s="1">
         <v>1267</v>
       </c>
@@ -1464,10 +1477,10 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>275</v>
       </c>
@@ -1483,10 +1496,10 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.05" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>295</v>
       </c>
@@ -1497,17 +1510,17 @@
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.75" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>325</v>
       </c>
@@ -1523,10 +1536,10 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.2" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.25" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>333</v>
       </c>
@@ -1544,10 +1557,10 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.05" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>420</v>
       </c>
@@ -1565,10 +1578,10 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>457</v>
       </c>
@@ -1586,10 +1599,10 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>484</v>
       </c>
@@ -1607,10 +1620,10 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.55" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>543</v>
       </c>
@@ -1628,10 +1641,10 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>591</v>
       </c>
@@ -1649,10 +1662,10 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>726</v>
       </c>
@@ -1672,10 +1685,10 @@
         <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.2" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>752</v>
       </c>
@@ -1693,33 +1706,33 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.55" customHeight="1" thickBot="1">
       <c r="A39" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B39" s="2">
         <v>803</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="G39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.8" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.850000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>803</v>
       </c>
@@ -1727,18 +1740,18 @@
         <v>812</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.05" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>812</v>
       </c>
@@ -1746,18 +1759,18 @@
         <v>844</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.8" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.850000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>994</v>
       </c>
@@ -1768,15 +1781,15 @@
         <v>4</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>1115</v>
       </c>
@@ -1787,15 +1800,15 @@
         <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>1256</v>
       </c>
@@ -1806,14 +1819,14 @@
         <v>26</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
